--- a/biology/Zoologie/Batagur/Batagur.xlsx
+++ b/biology/Zoologie/Batagur/Batagur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Batagur est un genre de tortues de la famille des Geoemydidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Batagur est un genre de tortues de la famille des Geoemydidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les six espèces de ce genre se rencontrent en Asie du Sud-Est et en Asie du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les six espèces de ce genre se rencontrent en Asie du Sud-Est et en Asie du Sud.
 Elles habitent les grands fleuves et, pour certaines espèces, leurs estuaires.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont de grandes tortues diurnes dont la longueur de sa carapace  varie de 48 cm (Batagur dhongoka) à 62,5 cm (Batagur affinis). Elles sont essentiellement herbivores. Elles pondent de 1 à 3 fois chaque année de 20 à 43 œufs par ponte[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont de grandes tortues diurnes dont la longueur de sa carapace  varie de 48 cm (Batagur dhongoka) à 62,5 cm (Batagur affinis). Elles sont essentiellement herbivores. Elles pondent de 1 à 3 fois chaque année de 20 à 43 œufs par ponte.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon TFTSG  (14 juin 2011)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon TFTSG  (14 juin 2011) :
 Batagur affinis (Cantor, 1847)
 Batagur baska (Gray, 1830)
 Batagur borneoensis (Schlegel &amp; Müller, 1845)
@@ -617,7 +635,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 1856 "1855" : Catalogue of Shield Reptiles in the Collection of the British Museum. Part I. Testudinata (Tortoises). British Museum, London, p. 1-79 (texte intégral).</t>
         </is>
